--- a/backend/Academic Calendar.xlsx
+++ b/backend/Academic Calendar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erik/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erik/Desktop/AssignmentTracker/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FECDCF-A539-864E-A480-5F547D88D31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA40DFA-99AE-5F4B-844B-75BF017502E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="500" windowWidth="19780" windowHeight="16400" xr2:uid="{2D0CEDB9-A709-4AAE-A82E-2D198CC8A493}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="19780" windowHeight="26580" xr2:uid="{2D0CEDB9-A709-4AAE-A82E-2D198CC8A493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDA1C1B-B78D-4C5E-A123-DDE2459716B5}">
   <dimension ref="A1:D389"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141:D142"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1885,7 +1885,7 @@
         <v>45706</v>
       </c>
       <c r="D62" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1913,7 +1913,7 @@
         <v>45706</v>
       </c>
       <c r="D64" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1927,7 +1927,7 @@
         <v>45707</v>
       </c>
       <c r="D65" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1941,7 +1941,7 @@
         <v>45707</v>
       </c>
       <c r="D66" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
